--- a/subjectsUnique_List.xlsx
+++ b/subjectsUnique_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davie.yoon/Dropbox/hcp7tret-cmf/export_dyoon_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davie.yoon/Dropbox/hcp7tret-cmf/dyoon_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CA525-594F-6E41-BEEB-1C2D31207588}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981FB607-1DC7-7643-BC93-98753A180FB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ybridges" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="Meeting" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="179">
   <si>
     <t>Slack notes</t>
   </si>
@@ -162,9 +161,6 @@
 and pronging is an artifact?</t>
   </si>
   <si>
-    <t>REDO ALL BOUNDARIES AT FOVEA</t>
-  </si>
-  <si>
     <t>LH crash</t>
   </si>
   <si>
@@ -307,9 +303,6 @@
   </si>
   <si>
     <t>Potential Y above 7 deg</t>
-  </si>
-  <si>
-    <t>Slight refine LH dorsal V2/V3 stripes</t>
   </si>
   <si>
     <t>RH swirly moderately all over</t>
@@ -473,6 +466,105 @@
   </si>
   <si>
     <t xml:space="preserve">* I'd like to compare curvature map across twins - just in each area (V1,V2,V3 dorsal and ventral) and then also in other parts of the brain - might find similarity of curvature is closer in some retinotopic areas than others </t>
+  </si>
+  <si>
+    <t>Slight refine LH dorsal V3 stripes</t>
+  </si>
+  <si>
+    <t>LH/RH ventral compression - smudgy stripes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH V2/V3 d+v </t>
+  </si>
+  <si>
+    <t>LH: weirdly expanded vs curvature</t>
+  </si>
+  <si>
+    <t>Beautiful stripes - should be an example subject almost - small gap in V3 near fovea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH/RH ventral slight swirl </t>
+  </si>
+  <si>
+    <t>Y above 7 deg</t>
+  </si>
+  <si>
+    <t>LH disorted / RH v slight</t>
+  </si>
+  <si>
+    <t>LH dorsal V2/V3</t>
+  </si>
+  <si>
+    <t>Dorsal LH/RH V2/V3</t>
+  </si>
+  <si>
+    <t>No but RH unusual 0.5 /fovea</t>
+  </si>
+  <si>
+    <t>LH/RH dorsal V2/V3</t>
+  </si>
+  <si>
+    <t>RH dorsal V2/V3 slight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH v V3 - </t>
+  </si>
+  <si>
+    <t>No - but v stripes missing</t>
+  </si>
+  <si>
+    <t>Slight swirly ventral LH/RH</t>
+  </si>
+  <si>
+    <t>LH dorsal: TWO FOVEAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH ventral: stretched </t>
+  </si>
+  <si>
+    <t>RH ventral super swirls</t>
+  </si>
+  <si>
+    <t>No - LH ventral slight swirl</t>
+  </si>
+  <si>
+    <t>LH grid distorted overall</t>
+  </si>
+  <si>
+    <t>LH swirly everywhere</t>
+  </si>
+  <si>
+    <t>LH dorsal V3 only</t>
+  </si>
+  <si>
+    <t>RH dorsal super swirly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y   </t>
+  </si>
+  <si>
+    <t>Bridging</t>
+  </si>
+  <si>
+    <t>RH squashed grid</t>
+  </si>
+  <si>
+    <t>LH/RH ventral distortions</t>
+  </si>
+  <si>
+    <t>Ventral convergence</t>
+  </si>
+  <si>
+    <t>Ventral stripes swirled together</t>
+  </si>
+  <si>
+    <t>DY final adjust 10/20/2018</t>
+  </si>
+  <si>
+    <t>Slight LH d V2/V3 stripes</t>
   </si>
 </sst>
 </file>
@@ -622,7 +714,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +918,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -987,7 +1085,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1003,6 +1101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1451,11 +1554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6BCB1F-3865-4247-B551-51E75365E129}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,7 +1570,7 @@
     <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1487,7 +1590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>153</v>
       </c>
@@ -1507,7 +1610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>8</v>
       </c>
@@ -1527,7 +1630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>143</v>
       </c>
@@ -1547,7 +1650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>148</v>
       </c>
@@ -1567,7 +1670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>21</v>
       </c>
@@ -1584,10 +1687,10 @@
         <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>30</v>
       </c>
@@ -1604,10 +1707,10 @@
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>14</v>
       </c>
@@ -1627,7 +1730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>32</v>
       </c>
@@ -1647,7 +1750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>54</v>
       </c>
@@ -1667,7 +1770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>122</v>
       </c>
@@ -1687,7 +1790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>23</v>
       </c>
@@ -1707,7 +1810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>67</v>
       </c>
@@ -1727,7 +1830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>138</v>
       </c>
@@ -1747,7 +1850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>176</v>
       </c>
@@ -1767,7 +1870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -1785,9 +1888,6 @@
       </c>
       <c r="F16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2187,7 +2287,7 @@
         <v>42</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2207,7 +2307,7 @@
         <v>42</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2224,10 +2324,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2244,10 +2344,10 @@
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2307,7 +2407,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2467,7 +2567,7 @@
         <v>25</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2487,7 +2587,7 @@
         <v>25</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2504,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>25</v>
@@ -2524,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>32</v>
@@ -2547,7 +2647,7 @@
         <v>32</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2567,7 +2667,7 @@
         <v>32</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3047,7 +3147,7 @@
         <v>32</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3064,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>25</v>
@@ -3084,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>42</v>
@@ -3104,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>25</v>
@@ -3124,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>25</v>
@@ -3144,10 +3244,10 @@
         <v>2</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3223,9 +3323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3264,7 +3364,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>43</v>
@@ -3277,6 +3377,9 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -3299,7 +3402,7 @@
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
@@ -3314,7 +3417,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3337,7 +3440,7 @@
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
@@ -3352,7 +3455,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -3375,7 +3478,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -3390,7 +3493,7 @@
         <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3413,7 +3516,7 @@
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
         <v>37</v>
@@ -3448,7 +3551,7 @@
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
@@ -3483,7 +3586,7 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
@@ -3518,10 +3621,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>4</v>
@@ -3553,7 +3656,7 @@
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>
@@ -3588,7 +3691,7 @@
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -3623,7 +3726,7 @@
         <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -3638,27 +3741,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>644246</v>
       </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>44</v>
+      <c r="L12" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -3681,7 +3796,7 @@
         <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
@@ -3716,7 +3831,7 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -3751,7 +3866,7 @@
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
@@ -3786,7 +3901,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
@@ -3801,7 +3916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3821,10 +3936,10 @@
         <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
         <v>4</v>
@@ -3836,7 +3951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3862,7 +3977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3882,7 +3997,7 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
@@ -3897,42 +4012,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>102311</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="12">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3952,7 +4070,7 @@
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
@@ -3967,7 +4085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3984,13 +4102,13 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
         <v>57</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>58</v>
       </c>
       <c r="J22" t="s">
         <v>4</v>
@@ -4002,7 +4120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4022,7 +4140,7 @@
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
         <v>37</v>
@@ -4037,7 +4155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4057,7 +4175,7 @@
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
         <v>37</v>
@@ -4072,7 +4190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4095,7 +4213,7 @@
         <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
         <v>39</v>
@@ -4110,7 +4228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4130,7 +4248,7 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
         <v>37</v>
@@ -4145,7 +4263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4165,7 +4283,7 @@
         <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
         <v>37</v>
@@ -4180,7 +4298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4200,10 +4318,10 @@
         <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
         <v>7</v>
@@ -4215,7 +4333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4235,7 +4353,7 @@
         <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
         <v>37</v>
@@ -4250,7 +4368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4270,10 +4388,10 @@
         <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s">
         <v>7</v>
@@ -4285,7 +4403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4302,13 +4420,13 @@
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J31" t="s">
         <v>7</v>
@@ -4320,7 +4438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4340,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s">
         <v>37</v>
@@ -4355,7 +4473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4375,7 +4493,7 @@
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
         <v>37</v>
@@ -4390,7 +4508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4410,7 +4528,7 @@
         <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
         <v>37</v>
@@ -4425,7 +4543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4445,7 +4563,7 @@
         <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
         <v>37</v>
@@ -4460,7 +4578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4486,10 +4604,10 @@
         <v>9</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4509,7 +4627,7 @@
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
         <v>37</v>
@@ -4524,7 +4642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4544,7 +4662,7 @@
         <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I38" t="s">
         <v>37</v>
@@ -4559,7 +4677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4579,7 +4697,7 @@
         <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s">
         <v>37</v>
@@ -4594,7 +4712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4614,10 +4732,10 @@
         <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J40" t="s">
         <v>7</v>
@@ -4629,7 +4747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -4646,10 +4764,10 @@
         <v>32</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>37</v>
@@ -4664,42 +4782,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="5">
         <v>140117</v>
       </c>
-      <c r="C42" s="3">
-        <v>3</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="C42" s="5">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" s="12">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4719,7 +4840,7 @@
         <v>25</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>37</v>
@@ -4734,7 +4855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4748,16 +4869,16 @@
         <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="J44" t="s">
         <v>7</v>
@@ -4769,7 +4890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4789,10 +4910,10 @@
         <v>25</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s">
         <v>7</v>
@@ -4804,7 +4925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4821,13 +4942,13 @@
         <v>42</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="J46" t="s">
         <v>7</v>
@@ -4839,7 +4960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4859,10 +4980,10 @@
         <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s">
         <v>7</v>
@@ -4874,7 +4995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4894,7 +5015,7 @@
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>37</v>
@@ -4909,7 +5030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4929,7 +5050,7 @@
         <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>37</v>
@@ -4944,7 +5065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4964,7 +5085,7 @@
         <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>37</v>
@@ -4979,7 +5100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4999,7 +5120,7 @@
         <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>37</v>
@@ -5014,7 +5135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5034,7 +5155,7 @@
         <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>37</v>
@@ -5049,7 +5170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5063,13 +5184,13 @@
         <v>2</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>37</v>
@@ -5084,7 +5205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5104,95 +5225,98 @@
         <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>789373</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M55" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>214019</v>
+      </c>
+      <c r="C56" s="4">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J54" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>789373</v>
-      </c>
-      <c r="C55" s="3">
-        <v>3</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6">
-        <v>214019</v>
-      </c>
-      <c r="C56" s="6">
-        <v>4</v>
-      </c>
-      <c r="D56" s="6">
-        <v>3</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5212,7 +5336,7 @@
         <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>37</v>
@@ -5227,77 +5351,83 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+    <row r="58" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="5">
         <v>214524</v>
       </c>
-      <c r="C58" s="3">
-        <v>3</v>
-      </c>
-      <c r="D58" s="3">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L58" s="3" t="s">
+      <c r="H58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M58" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>724446</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3">
-        <v>724446</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2</v>
-      </c>
-      <c r="D59" s="3">
-        <v>2</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5317,7 +5447,7 @@
         <v>25</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>37</v>
@@ -5332,7 +5462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5352,10 +5482,10 @@
         <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J61" t="s">
         <v>8</v>
@@ -5367,7 +5497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5390,10 +5520,10 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J62" t="s">
         <v>8</v>
@@ -5405,45 +5535,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="4">
         <v>125525</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="4">
         <v>4</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>4</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5463,7 +5593,7 @@
         <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I64" t="s">
         <v>37</v>
@@ -5478,80 +5608,83 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="5">
         <v>395756</v>
       </c>
-      <c r="C65" s="3">
-        <v>3</v>
-      </c>
-      <c r="D65" s="3">
-        <v>3</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="C65" s="5">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="J65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="6">
+      <c r="M65" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4">
         <v>192439</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="4">
         <v>4</v>
       </c>
-      <c r="D66" s="6">
-        <v>3</v>
-      </c>
-      <c r="E66" s="6" t="s">
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5565,7 +5698,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F67" t="s">
         <v>25</v>
@@ -5574,7 +5707,7 @@
         <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I67" t="s">
         <v>37</v>
@@ -5589,42 +5722,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="5">
         <v>105923</v>
       </c>
-      <c r="C68" s="3">
-        <v>3</v>
-      </c>
-      <c r="D68" s="3">
-        <v>3</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="C68" s="5">
+        <v>3</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="H68" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M68" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5644,7 +5780,7 @@
         <v>42</v>
       </c>
       <c r="H69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I69" t="s">
         <v>37</v>
@@ -5659,7 +5795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5679,7 +5815,7 @@
         <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I70" t="s">
         <v>37</v>
@@ -5694,7 +5830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5714,10 +5850,10 @@
         <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J71" t="s">
         <v>8</v>
@@ -5729,7 +5865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5743,13 +5879,16 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G72" t="s">
         <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="I72" t="s">
+        <v>60</v>
       </c>
       <c r="J72" t="s">
         <v>8</v>
@@ -5757,68 +5896,122 @@
       <c r="K72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="L72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>178243</v>
       </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="J73" t="s">
-        <v>8</v>
-      </c>
-      <c r="K73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M73" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="13">
         <v>158035</v>
       </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="J74" t="s">
-        <v>8</v>
-      </c>
-      <c r="K74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="C74" s="13">
+        <v>2</v>
+      </c>
+      <c r="D74" s="13">
+        <v>2</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="5">
         <v>203418</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="5">
         <v>4</v>
       </c>
-      <c r="D75" s="2">
-        <v>2</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D75" s="5">
+        <v>2</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M75" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5831,357 +6024,660 @@
       <c r="D76">
         <v>2</v>
       </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" t="s">
+        <v>151</v>
+      </c>
       <c r="J76" t="s">
         <v>8</v>
       </c>
       <c r="K76" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="L76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>638049</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="J77" t="s">
-        <v>8</v>
-      </c>
-      <c r="K77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="C77" s="5">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M77" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>109123</v>
       </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="J78" t="s">
-        <v>8</v>
-      </c>
-      <c r="K78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="C78" s="5">
+        <v>3</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M78" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>401422</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="J79" t="s">
-        <v>8</v>
-      </c>
-      <c r="K79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>671855</v>
       </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C80" s="5">
+        <v>3</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J80" t="s">
-        <v>8</v>
-      </c>
-      <c r="K80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="F80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="I80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M80" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5">
         <v>111312</v>
       </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="J81" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="C81" s="5">
+        <v>3</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M81" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>871762</v>
       </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="J82" t="s">
-        <v>8</v>
-      </c>
-      <c r="K82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="C82" s="5">
+        <v>3</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M82" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>818859</v>
       </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="J83" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="C83" s="5">
+        <v>2</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>118225</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="J84" t="s">
-        <v>8</v>
-      </c>
-      <c r="K84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>159239</v>
       </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>8</v>
-      </c>
-      <c r="K85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="C85" s="5">
+        <v>3</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M85" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>171633</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>8</v>
-      </c>
-      <c r="K86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="C86" s="5">
+        <v>2</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M86" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>131217</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>8</v>
-      </c>
-      <c r="K87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="C87" s="5">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M87" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>178647</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>8</v>
-      </c>
-      <c r="K88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M88" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>654552</v>
       </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="C89" s="5">
+        <v>3</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>164636</v>
       </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>8</v>
-      </c>
-      <c r="K90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="C90" s="5">
+        <v>2</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>178142</v>
       </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="J91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="C91" s="5">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>205220</v>
       </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>3</v>
-      </c>
-      <c r="J92" t="s">
-        <v>8</v>
-      </c>
-      <c r="K92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M92" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>782561</v>
       </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="J93" t="s">
-        <v>8</v>
-      </c>
-      <c r="K93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C93" s="5">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5">
+        <v>2</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M93" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6194,14 +6690,29 @@
       <c r="D94">
         <v>2</v>
       </c>
+      <c r="F94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="J94" t="s">
         <v>8</v>
       </c>
       <c r="K94" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6214,277 +6725,406 @@
       <c r="D95">
         <v>2</v>
       </c>
+      <c r="F95" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="J95" t="s">
         <v>8</v>
       </c>
       <c r="K95" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="L95" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>126426</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="J96" t="s">
-        <v>8</v>
-      </c>
-      <c r="K96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="C96" s="5">
+        <v>2</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M96" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>145834</v>
       </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-      <c r="J97" t="s">
-        <v>8</v>
-      </c>
-      <c r="K97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M97" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>182739</v>
       </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="J98" t="s">
-        <v>8</v>
-      </c>
-      <c r="K98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="C98" s="5">
+        <v>2</v>
+      </c>
+      <c r="D98" s="5">
+        <v>2</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M98" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>951457</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-      <c r="J99" t="s">
-        <v>8</v>
-      </c>
-      <c r="K99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="C99" s="5">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5">
+        <v>3</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>617748</v>
       </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="J100" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="C100" s="5">
+        <v>3</v>
+      </c>
+      <c r="D100" s="5">
+        <v>3</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M100" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>192641</v>
       </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="J101" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="C101" s="5">
+        <v>2</v>
+      </c>
+      <c r="D101" s="5">
+        <v>2</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="5">
         <v>134627</v>
       </c>
-      <c r="C102" s="3">
-        <v>3</v>
-      </c>
-      <c r="D102" s="3">
-        <v>2</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L102" s="3" t="s">
+      <c r="C102" s="5">
+        <v>3</v>
+      </c>
+      <c r="D102" s="5">
+        <v>2</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M102" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5">
+        <v>765864</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5">
+        <v>3</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>102</v>
-      </c>
-      <c r="B103" s="3">
-        <v>765864</v>
-      </c>
-      <c r="C103" s="3">
-        <v>2</v>
-      </c>
-      <c r="D103" s="3">
-        <v>3</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="F103" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M103" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>104416</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L104" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I103" s="3" t="s">
+      <c r="M104" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>859671</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>103</v>
-      </c>
-      <c r="B104" s="3">
-        <v>104416</v>
-      </c>
-      <c r="C104" s="3">
-        <v>2</v>
-      </c>
-      <c r="D104" s="3">
-        <v>2</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>104</v>
-      </c>
-      <c r="B105" s="3">
-        <v>859671</v>
-      </c>
-      <c r="C105" s="3">
-        <v>2</v>
-      </c>
-      <c r="D105" s="3">
-        <v>2</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6504,10 +7144,10 @@
         <v>25</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J106" t="s">
         <v>8</v>
@@ -6519,7 +7159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6539,10 +7179,10 @@
         <v>25</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J107" t="s">
         <v>8</v>
@@ -6554,7 +7194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -6567,34 +7207,67 @@
       <c r="D108" s="2">
         <v>4</v>
       </c>
+      <c r="F108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="J108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="L108" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="5">
         <v>385046</v>
       </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="J109" t="s">
-        <v>8</v>
-      </c>
-      <c r="K109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C109" s="5">
+        <v>2</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M109" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6607,14 +7280,29 @@
       <c r="D110">
         <v>2</v>
       </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s">
+        <v>61</v>
+      </c>
+      <c r="I110" t="s">
+        <v>60</v>
+      </c>
       <c r="J110" t="s">
         <v>8</v>
       </c>
       <c r="K110" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6627,14 +7315,29 @@
       <c r="D111">
         <v>3</v>
       </c>
+      <c r="F111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s">
+        <v>60</v>
+      </c>
+      <c r="I111" t="s">
+        <v>174</v>
+      </c>
       <c r="J111" t="s">
         <v>8</v>
       </c>
       <c r="K111" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6654,10 +7357,10 @@
         <v>32</v>
       </c>
       <c r="H112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J112" t="s">
         <v>8</v>
@@ -6669,7 +7372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6689,10 +7392,10 @@
         <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J113" t="s">
         <v>8</v>
@@ -6704,7 +7407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6724,10 +7427,10 @@
         <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J114" t="s">
         <v>8</v>
@@ -6739,42 +7442,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+    <row r="115" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="5">
         <v>115825</v>
       </c>
-      <c r="C115" s="3">
-        <v>3</v>
-      </c>
-      <c r="D115" s="3">
-        <v>3</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C115" s="5">
+        <v>3</v>
+      </c>
+      <c r="D115" s="5">
+        <v>3</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M115" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6794,95 +7500,101 @@
         <v>25</v>
       </c>
       <c r="H116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I116" t="s">
+        <v>110</v>
+      </c>
+      <c r="J116" t="s">
+        <v>8</v>
+      </c>
+      <c r="K116" t="s">
+        <v>9</v>
+      </c>
+      <c r="L116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5">
+        <v>973770</v>
+      </c>
+      <c r="C117" s="5">
+        <v>3</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M117" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5">
+        <v>144226</v>
+      </c>
+      <c r="C118" s="5">
+        <v>4</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J116" t="s">
-        <v>8</v>
-      </c>
-      <c r="K116" t="s">
-        <v>9</v>
-      </c>
-      <c r="L116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>116</v>
-      </c>
-      <c r="B117" s="3">
-        <v>973770</v>
-      </c>
-      <c r="C117" s="3">
-        <v>3</v>
-      </c>
-      <c r="D117" s="3">
-        <v>2</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>117</v>
-      </c>
-      <c r="B118" s="3">
-        <v>144226</v>
-      </c>
-      <c r="C118" s="3">
-        <v>4</v>
-      </c>
-      <c r="D118" s="3">
-        <v>2</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L118" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G118" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M118" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6902,10 +7614,10 @@
         <v>25</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J119" t="s">
         <v>8</v>
@@ -6917,7 +7629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6937,7 +7649,7 @@
         <v>25</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>37</v>
@@ -6952,45 +7664,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+    <row r="121" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="4">
         <v>706040</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="4">
         <v>4</v>
       </c>
-      <c r="D121" s="6">
-        <v>3</v>
-      </c>
-      <c r="E121" s="6" t="s">
+      <c r="D121" s="4">
+        <v>3</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G121" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L121" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G121" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7010,10 +7722,10 @@
         <v>25</v>
       </c>
       <c r="H122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J122" t="s">
         <v>8</v>
@@ -7025,7 +7737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7045,95 +7757,101 @@
         <v>25</v>
       </c>
       <c r="H123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I123" t="s">
+        <v>88</v>
+      </c>
+      <c r="J123" t="s">
+        <v>8</v>
+      </c>
+      <c r="K123" t="s">
+        <v>9</v>
+      </c>
+      <c r="L123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5">
+        <v>910241</v>
+      </c>
+      <c r="C124" s="5">
+        <v>4</v>
+      </c>
+      <c r="D124" s="5">
+        <v>3</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L124" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J123" t="s">
-        <v>8</v>
-      </c>
-      <c r="K123" t="s">
-        <v>9</v>
-      </c>
-      <c r="L123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
-        <v>123</v>
-      </c>
-      <c r="B124" s="3">
-        <v>910241</v>
-      </c>
-      <c r="C124" s="3">
-        <v>4</v>
-      </c>
-      <c r="D124" s="3">
-        <v>3</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" s="3" t="s">
+      <c r="M124" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5">
+        <v>221319</v>
+      </c>
+      <c r="C125" s="5">
+        <v>3</v>
+      </c>
+      <c r="D125" s="5">
+        <v>3</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I124" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
-        <v>124</v>
-      </c>
-      <c r="B125" s="3">
-        <v>221319</v>
-      </c>
-      <c r="C125" s="3">
-        <v>3</v>
-      </c>
-      <c r="D125" s="3">
-        <v>3</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G125" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M125" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7147,16 +7865,16 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J126" t="s">
         <v>8</v>
@@ -7168,7 +7886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7188,10 +7906,10 @@
         <v>25</v>
       </c>
       <c r="H127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J127" t="s">
         <v>8</v>
@@ -7203,7 +7921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7217,16 +7935,16 @@
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G128" t="s">
         <v>25</v>
       </c>
       <c r="H128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J128" t="s">
         <v>8</v>
@@ -7238,7 +7956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7255,13 +7973,13 @@
         <v>25</v>
       </c>
       <c r="G129" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J129" t="s">
         <v>8</v>
@@ -7273,7 +7991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7293,10 +8011,10 @@
         <v>25</v>
       </c>
       <c r="H130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I130" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J130" t="s">
         <v>8</v>
@@ -7308,77 +8026,83 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+    <row r="131" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="5">
         <v>680957</v>
       </c>
-      <c r="C131" s="3">
-        <v>3</v>
-      </c>
-      <c r="D131" s="3">
-        <v>3</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L131" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+      <c r="C131" s="5">
+        <v>3</v>
+      </c>
+      <c r="D131" s="5">
+        <v>3</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M131" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="5">
         <v>181636</v>
       </c>
-      <c r="C132" s="3">
-        <v>3</v>
-      </c>
-      <c r="D132" s="3">
-        <v>3</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="C132" s="5">
+        <v>3</v>
+      </c>
+      <c r="D132" s="5">
+        <v>3</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L132" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G132" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7398,10 +8122,10 @@
         <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J133" t="s">
         <v>8</v>
@@ -7413,7 +8137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7433,10 +8157,10 @@
         <v>25</v>
       </c>
       <c r="H134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J134" t="s">
         <v>8</v>
@@ -7448,45 +8172,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
+    <row r="135" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="4">
         <v>958976</v>
       </c>
-      <c r="C135" s="6">
-        <v>3</v>
-      </c>
-      <c r="D135" s="6">
-        <v>3</v>
-      </c>
-      <c r="E135" s="6" t="s">
+      <c r="C135" s="4">
+        <v>3</v>
+      </c>
+      <c r="D135" s="4">
+        <v>3</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F135" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K135" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L135" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F135" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7506,10 +8230,10 @@
         <v>25</v>
       </c>
       <c r="H136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J136" t="s">
         <v>8</v>
@@ -7521,7 +8245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7541,10 +8265,10 @@
         <v>25</v>
       </c>
       <c r="H137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J137" t="s">
         <v>8</v>
@@ -7556,7 +8280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7576,10 +8300,10 @@
         <v>25</v>
       </c>
       <c r="H138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J138" t="s">
         <v>8</v>
@@ -7591,7 +8315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7611,10 +8335,10 @@
         <v>32</v>
       </c>
       <c r="H139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J139" t="s">
         <v>8</v>
@@ -7626,77 +8350,81 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+    <row r="140" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="5">
         <v>251833</v>
       </c>
-      <c r="C140" s="3">
-        <v>3</v>
-      </c>
-      <c r="D140" s="3">
-        <v>3</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L140" s="3" t="s">
+      <c r="C140" s="5">
+        <v>3</v>
+      </c>
+      <c r="D140" s="5">
+        <v>3</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M140" s="12"/>
+    </row>
+    <row r="141" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5">
+        <v>249947</v>
+      </c>
+      <c r="C141" s="5">
+        <v>3</v>
+      </c>
+      <c r="D141" s="5">
+        <v>2</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L141" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>140</v>
-      </c>
-      <c r="B141" s="3">
-        <v>249947</v>
-      </c>
-      <c r="C141" s="3">
-        <v>3</v>
-      </c>
-      <c r="D141" s="3">
-        <v>2</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7716,10 +8444,10 @@
         <v>42</v>
       </c>
       <c r="H142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J142" t="s">
         <v>8</v>
@@ -7731,45 +8459,48 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+    <row r="143" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="5">
         <v>185442</v>
       </c>
-      <c r="C143" s="3">
-        <v>3</v>
-      </c>
-      <c r="D143" s="3">
-        <v>2</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C143" s="5">
+        <v>3</v>
+      </c>
+      <c r="D143" s="5">
+        <v>2</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M143" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7789,10 +8520,10 @@
         <v>25</v>
       </c>
       <c r="H144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J144" t="s">
         <v>8</v>
@@ -7804,7 +8535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7824,10 +8555,10 @@
         <v>25</v>
       </c>
       <c r="H145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I145" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J145" t="s">
         <v>8</v>
@@ -7839,7 +8570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -7859,10 +8590,10 @@
         <v>25</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J146" s="5" t="s">
         <v>8</v>
@@ -7874,7 +8605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7894,7 +8625,7 @@
         <v>25</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I147" t="s">
         <v>19</v>
@@ -7909,7 +8640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7929,10 +8660,10 @@
         <v>36</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J148" t="s">
         <v>8</v>
@@ -7944,42 +8675,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
+    <row r="149" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="5">
         <v>212419</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="5">
         <v>4</v>
       </c>
-      <c r="D149" s="2">
-        <v>3</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="D149" s="5">
+        <v>3</v>
+      </c>
+      <c r="F149" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H149" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L149" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H149" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M149" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7996,14 +8730,14 @@
         <v>32</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H150" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I150" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="J150" s="2" t="s">
         <v>8</v>
       </c>
@@ -8014,7 +8748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8034,10 +8768,10 @@
         <v>25</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J151" t="s">
         <v>8</v>
@@ -8049,7 +8783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8069,10 +8803,10 @@
         <v>25</v>
       </c>
       <c r="H152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J152" t="s">
         <v>8</v>
@@ -8084,7 +8818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8104,10 +8838,10 @@
         <v>25</v>
       </c>
       <c r="H153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J153" t="s">
         <v>8</v>
@@ -8119,7 +8853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8139,10 +8873,10 @@
         <v>36</v>
       </c>
       <c r="H154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I154" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J154" t="s">
         <v>8</v>
@@ -8154,7 +8888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8174,10 +8908,10 @@
         <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I155" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J155" t="s">
         <v>8</v>
@@ -8189,7 +8923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8209,10 +8943,10 @@
         <v>25</v>
       </c>
       <c r="H156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J156" t="s">
         <v>8</v>
@@ -8224,7 +8958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8244,10 +8978,10 @@
         <v>32</v>
       </c>
       <c r="H157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J157" t="s">
         <v>8</v>
@@ -8259,7 +8993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8279,10 +9013,10 @@
         <v>32</v>
       </c>
       <c r="H158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J158" t="s">
         <v>8</v>
@@ -8294,7 +9028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8314,10 +9048,10 @@
         <v>25</v>
       </c>
       <c r="H159" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I159" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J159" t="s">
         <v>8</v>
@@ -8329,7 +9063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8349,10 +9083,10 @@
         <v>42</v>
       </c>
       <c r="H160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J160" t="s">
         <v>8</v>
@@ -8364,80 +9098,83 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
+    <row r="161" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="5">
         <v>436845</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="5">
         <v>4</v>
       </c>
-      <c r="D161" s="3">
-        <v>3</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L161" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
+      <c r="D161" s="5">
+        <v>3</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M161" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="4">
         <v>169444</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="4">
         <v>4</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="4">
         <v>4</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F162" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J162" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K162" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L162" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F162" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8457,7 +9194,7 @@
         <v>25</v>
       </c>
       <c r="H163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I163" t="s">
         <v>37</v>
@@ -8472,7 +9209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8492,7 +9229,7 @@
         <v>42</v>
       </c>
       <c r="H164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I164" t="s">
         <v>37</v>
@@ -8507,7 +9244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8527,10 +9264,10 @@
         <v>25</v>
       </c>
       <c r="H165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J165" t="s">
         <v>8</v>
@@ -8542,7 +9279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8556,13 +9293,13 @@
         <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G166" t="s">
         <v>32</v>
       </c>
       <c r="H166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I166" t="s">
         <v>39</v>
@@ -8577,7 +9314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8597,7 +9334,7 @@
         <v>42</v>
       </c>
       <c r="H167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I167" t="s">
         <v>37</v>
@@ -8612,33 +9349,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
+    <row r="168" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B168" s="4">
         <v>572045</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="4">
         <v>4</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="4">
         <v>4</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J168" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K168" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L168" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8655,10 +9392,10 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I169" t="s">
         <v>37</v>
@@ -8673,7 +9410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8690,7 +9427,7 @@
         <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H170" t="s">
         <v>22</v>
@@ -8705,7 +9442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8725,7 +9462,7 @@
         <v>42</v>
       </c>
       <c r="H171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I171" t="s">
         <v>27</v>
@@ -8740,7 +9477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8760,7 +9497,7 @@
         <v>36</v>
       </c>
       <c r="H172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I172" t="s">
         <v>37</v>
@@ -8775,7 +9512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8795,7 +9532,7 @@
         <v>25</v>
       </c>
       <c r="H173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I173" t="s">
         <v>38</v>
@@ -8810,7 +9547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8830,7 +9567,7 @@
         <v>30</v>
       </c>
       <c r="H174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I174" t="s">
         <v>37</v>
@@ -8845,7 +9582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8865,7 +9602,7 @@
         <v>30</v>
       </c>
       <c r="H175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I175" t="s">
         <v>39</v>
@@ -8880,7 +9617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8900,7 +9637,7 @@
         <v>25</v>
       </c>
       <c r="H176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I176" t="s">
         <v>37</v>
@@ -8915,42 +9652,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3">
+    <row r="177" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="5">
         <v>114823</v>
       </c>
-      <c r="C177" s="3">
-        <v>3</v>
-      </c>
-      <c r="D177" s="3">
-        <v>3</v>
-      </c>
-      <c r="F177" s="3" t="s">
+      <c r="C177" s="5">
+        <v>3</v>
+      </c>
+      <c r="D177" s="5">
+        <v>3</v>
+      </c>
+      <c r="F177" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G177" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H177" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I177" s="3" t="s">
+      <c r="H177" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I177" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J177" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L177" s="3" t="s">
+      <c r="J177" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L177" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" s="12">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8970,7 +9710,7 @@
         <v>42</v>
       </c>
       <c r="H178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I178" t="s">
         <v>37</v>
@@ -8985,7 +9725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9005,7 +9745,7 @@
         <v>25</v>
       </c>
       <c r="H179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I179" t="s">
         <v>37</v>
@@ -9020,7 +9760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9040,7 +9780,7 @@
         <v>25</v>
       </c>
       <c r="H180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I180" t="s">
         <v>39</v>
@@ -9055,7 +9795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9075,7 +9815,7 @@
         <v>32</v>
       </c>
       <c r="H181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I181" t="s">
         <v>37</v>
@@ -9090,7 +9830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9110,7 +9850,7 @@
         <v>25</v>
       </c>
       <c r="H182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I182" t="s">
         <v>37</v>
@@ -9145,136 +9885,136 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/subjectsUnique_List.xlsx
+++ b/subjectsUnique_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davie.yoon/Dropbox/hcp7tret-cmf/dyoon_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981FB607-1DC7-7643-BC93-98753A180FB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44619BD-CC25-9344-B0F6-D44B9D8FCCA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,10 +561,10 @@
     <t>Ventral stripes swirled together</t>
   </si>
   <si>
-    <t>DY final adjust 10/20/2018</t>
-  </si>
-  <si>
     <t>Slight LH d V2/V3 stripes</t>
+  </si>
+  <si>
+    <t>DY final adjust - mostly for Y branches 10/20/2018</t>
   </si>
 </sst>
 </file>
@@ -3324,8 +3324,8 @@
   <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3341,7 +3341,7 @@
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>23</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -7845,7 +7845,7 @@
         <v>9</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M125" s="12">
         <v>43394</v>
